--- a/data/Fall2024/Network Motif Comparison - 3 gene, 4 node networks/Trial 8 Permutations/8.8/No constants/trial_8.8_NOconstant_output.xlsx
+++ b/data/Fall2024/Network Motif Comparison - 3 gene, 4 node networks/Trial 8 Permutations/8.8/No constants/trial_8.8_NOconstant_output.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdahlqui\Desktop\ISMB 2025\trial 8 permutations\8.8\No constants\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01740BCC-F794-491F-A67C-58F9858C0347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" tabRatio="877" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="765" yWindow="765" windowWidth="18345" windowHeight="11745" tabRatio="877" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="5" r:id="rId1"/>
@@ -153,7 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -925,8 +919,8 @@
     <cellStyle name="Hyperlink" xfId="344" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="346" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="348" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
-    <cellStyle name="Normal 3" xfId="277" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="Normal 2" xfId="348"/>
+    <cellStyle name="Normal 3" xfId="277"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1262,21 +1256,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" style="1"/>
+    <col min="1" max="1" width="10.875" style="1"/>
     <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.8984375" style="1"/>
+    <col min="3" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1284,7 +1278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1292,7 +1286,7 @@
         <v>0.30643999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1300,7 +1294,7 @@
         <v>0.30643999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,22 +1302,22 @@
         <v>0.30643999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1336,16 +1330,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9ACEE60-6D93-4AD3-A717-9EFE9D30EFF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1353,28 +1347,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2">
-        <v>0.30728531574427903</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.30694938228558577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3">
-        <v>1.4052234981417016</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.0743086107694393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4">
-        <v>0.5220558422636864</v>
+        <v>0.48771524593590354</v>
       </c>
     </row>
   </sheetData>
@@ -1383,16 +1377,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE3AD10-7328-4734-BC3C-4462FA44455B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1400,28 +1394,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2">
-        <v>5.0590106287916577E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3.0587440664167575E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3">
-        <v>1.666239164916417</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.3839158090808557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4">
-        <v>0.75936231379511099</v>
+        <v>0.66309294236400151</v>
       </c>
     </row>
   </sheetData>
@@ -1430,16 +1424,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561C91DD-BE19-4820-B353-3C7CAB442E5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1453,7 +1447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1461,13 +1455,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.9899193421148449</v>
+        <v>1.9939437371105837</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1478,18 +1472,18 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-1.9301467610680099</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.9372125735418451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4">
-        <v>0.4756771475773951</v>
+        <v>0.50183442381666499</v>
       </c>
       <c r="C4">
-        <v>-0.49365184090343595</v>
+        <v>-0.51982030316205574</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1501,16 +1495,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9B4771-C028-4D9D-9C59-5DFF68023F75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1518,23 +1512,23 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2">
-        <v>4.4705591269123412E-10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3.4717146051340112E-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3">
-        <v>1.38498357154843</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.2091802766687352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1542,20 +1536,20 @@
         <v>9.8765638173704394E-35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
       <c r="B5">
-        <v>6616</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1563,28 +1557,28 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
       <c r="B8">
-        <v>1.9723259626437377E-10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.2993402247154986E-11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
       <c r="B9">
-        <v>2.0525631833272976E-10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.5689021843658784E-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
       <c r="B10">
-        <v>9.3867882347659878E-10</v>
+        <v>8.7163076085646052E-10</v>
       </c>
     </row>
   </sheetData>
@@ -1593,21 +1587,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" style="1"/>
+    <col min="1" max="1" width="10.875" style="1"/>
     <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.8984375" style="1"/>
+    <col min="3" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1615,7 +1609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1623,7 +1617,7 @@
         <v>0.15323000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1631,7 +1625,7 @@
         <v>0.15323000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1639,7 +1633,7 @@
         <v>0.15323000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
     </row>
   </sheetData>
@@ -1654,23 +1648,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="6.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="24" width="6.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="10.8984375" style="1"/>
+    <col min="2" max="5" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="24" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1714,7 +1708,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1768,7 +1762,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1822,7 +1816,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1876,7 +1870,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1901,7 +1895,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1926,7 +1920,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1951,7 +1945,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1976,7 +1970,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2001,7 +1995,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2026,7 +2020,7 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2051,7 +2045,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2076,7 +2070,7 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2101,7 +2095,7 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2126,7 +2120,7 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2151,7 +2145,7 @@
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2188,19 +2182,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.8984375" style="1"/>
+    <col min="1" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2214,7 +2208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -2228,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -2242,7 +2236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -2268,19 +2262,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.8984375" style="1"/>
+    <col min="1" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2294,7 +2288,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
@@ -2308,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
@@ -2322,7 +2316,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -2348,20 +2342,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.8984375" style="1"/>
+    <col min="2" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2369,7 +2363,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2377,7 +2371,7 @@
         <v>2E-8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2385,7 +2379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2393,7 +2387,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2401,7 +2395,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2409,7 +2403,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2417,7 +2411,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2425,7 +2419,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -2433,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2441,7 +2435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2449,7 +2443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -2457,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -2465,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -2479,7 +2473,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -2487,7 +2481,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -2543,19 +2537,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.8984375" style="1"/>
+    <col min="1" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2563,7 +2557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -2571,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -2579,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -2599,16 +2593,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2A19A0-FD58-41B3-BEAC-A20827DC4307}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2652,7 +2646,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2660,43 +2654,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.41664633867987327</v>
+        <v>0.41646677733897119</v>
       </c>
       <c r="D2">
-        <v>0.46184448273186213</v>
+        <v>0.46176807853492619</v>
       </c>
       <c r="E2">
-        <v>0.40161241888498772</v>
+        <v>0.40160771727658495</v>
       </c>
       <c r="F2">
-        <v>0.32221130029955203</v>
+        <v>0.32223209573017675</v>
       </c>
       <c r="G2">
-        <v>0.25474222301839755</v>
+        <v>0.25476347511591979</v>
       </c>
       <c r="H2">
-        <v>0.20670192947620486</v>
+        <v>0.20671453136009876</v>
       </c>
       <c r="I2">
-        <v>0.17606804760759426</v>
+        <v>0.17607123791630941</v>
       </c>
       <c r="J2">
-        <v>0.15806024902956256</v>
+        <v>0.15805653259498154</v>
       </c>
       <c r="K2">
-        <v>0.14818384229720286</v>
+        <v>0.14817593846626842</v>
       </c>
       <c r="L2">
-        <v>0.14312558851720314</v>
+        <v>0.14311546455371871</v>
       </c>
       <c r="M2">
-        <v>0.14073269612738259</v>
+        <v>0.14072153460539172</v>
       </c>
       <c r="N2">
-        <v>0.13972059388612046</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.1397090158556753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -2704,43 +2698,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.78482578830930316</v>
+        <v>-0.78490648797862961</v>
       </c>
       <c r="D3">
-        <v>-1.4925008992151003</v>
+        <v>-1.4925198021243902</v>
       </c>
       <c r="E3">
-        <v>-2.1072345859181376</v>
+        <v>-2.10723478868388</v>
       </c>
       <c r="F3">
-        <v>-2.5916774062680701</v>
+        <v>-2.5916768687798313</v>
       </c>
       <c r="G3">
-        <v>-2.9271320816009965</v>
+        <v>-2.9271336249489166</v>
       </c>
       <c r="H3">
-        <v>-3.1288038363687449</v>
+        <v>-3.128805991991245</v>
       </c>
       <c r="I3">
-        <v>-3.2343299657619164</v>
+        <v>-3.2343311476537009</v>
       </c>
       <c r="J3">
-        <v>-3.282121472562928</v>
+        <v>-3.2821213212851097</v>
       </c>
       <c r="K3">
-        <v>-3.2999146990076986</v>
+        <v>-3.2999132449441522</v>
       </c>
       <c r="L3">
-        <v>-3.3040620270414522</v>
+        <v>-3.3040597681564954</v>
       </c>
       <c r="M3">
-        <v>-3.302967658602693</v>
+        <v>-3.3029651882826796</v>
       </c>
       <c r="N3">
-        <v>-3.3004784619332255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>-3.3004761706499863</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2748,40 +2742,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.18325381256471515</v>
+        <v>0.18266604131799169</v>
       </c>
       <c r="D4">
-        <v>0.37048013684216613</v>
+        <v>0.370356878813632</v>
       </c>
       <c r="E4">
-        <v>0.48202792421078461</v>
+        <v>0.48202682583066903</v>
       </c>
       <c r="F4">
-        <v>0.53599146966047073</v>
+        <v>0.53599840082459982</v>
       </c>
       <c r="G4">
-        <v>0.55713647011179868</v>
+        <v>0.5571379909751295</v>
       </c>
       <c r="H4">
-        <v>0.56226404370174965</v>
+        <v>0.56226344292546881</v>
       </c>
       <c r="I4">
-        <v>0.56081293458468706</v>
+        <v>0.56081237642383175</v>
       </c>
       <c r="J4">
-        <v>0.55748342140598495</v>
+        <v>0.5574833466572664</v>
       </c>
       <c r="K4">
-        <v>0.55426701992418625</v>
+        <v>0.55426743881401563</v>
       </c>
       <c r="L4">
-        <v>0.55179476447145248</v>
+        <v>0.55179567203149005</v>
       </c>
       <c r="M4">
-        <v>0.55010702316918403</v>
+        <v>0.55010840495467073</v>
       </c>
       <c r="N4">
-        <v>0.5490436964893779</v>
+        <v>0.54904549961099991</v>
       </c>
     </row>
   </sheetData>
@@ -2790,16 +2784,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F6351D-49D7-45BB-B7BD-885016375347}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2813,7 +2807,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2827,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -2841,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
